--- a/학습자료/단답형/오답노트/오답노트_무한반복_단답형_객관식_고려_연도(왕)_전기.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_단답형_객관식_고려_연도(왕)_전기.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,10 +463,10 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>승과제도 실시
-1. 1086년 : 선종
-2. 958년 : 광종
-3. 1104년 : 숙종</t>
+          <t>송나라 서긍의 고려도경 저술
+1. 949년 : 광종
+2. 942년 : 태조
+3. 1123년 : 인종</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -474,47 +474,47 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2, 958년 : 광종</t>
+          <t>3, 1123년 : 인종</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>20221212</v>
+        <v>20221213</v>
       </c>
       <c r="E2" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>평양에 기자사당 건립
-1. 1102년 : 숙종
-2. 1018년 : 현종
-3. 1108년 : 예종</t>
+          <t>7대실록 완성
+1. 1123년 : 인종
+2. 1034년 : 덕종
+3. 993년 : 성종</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1, 1102년 : 숙종</t>
+          <t>2, 1034년 : 덕종</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>20221212</v>
+        <v>20221213</v>
       </c>
       <c r="E3" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>삼복제 실시
-1. 1123년 : 인종
-2. 1057년 : 문종
-3. 1170년 : 의종</t>
+          <t>김위제의 건의로 남경 건설 추진
+1. 1018년 : 현종
+2. 1099년 : 숙종
+3. 958년 : 광종</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -522,66 +522,514 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2, 1057년 : 문종</t>
+          <t>2, 1099년 : 숙종</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>20221212</v>
+        <v>20221213</v>
       </c>
       <c r="E4" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>혜민국 설치
-1. 945년 : 혜종
-2. 1112년 : 예종
-3. 998년 : 목종</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
+          <t>제위보 설치
+1. 963년 : 광종
+2. 1129년 : 인종
+3. 1055년 : 문종</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2, 1112년 : 예종</t>
+          <t>1, 963년 : 광종</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>20221212</v>
+        <v>20221213</v>
       </c>
       <c r="E5" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>혜민국 설치
-1. 945년 : 혜종
-2. 1112년 : 예종
-3. 998년 : 목종</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>3</v>
-      </c>
+          <t>6위 설치
+1. 1055년 : 문종
+2. 995년 : 성종
+3. 1034년 : 덕종</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2, 1112년 : 예종</t>
+          <t>2, 995년 : 성종</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>20221212</v>
+        <v>20221213</v>
       </c>
       <c r="E6" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
+        <is>
+          <t>이자겸의 금 사대관계 수용
+1. 1029년 : 현</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2, 1125년 : 인종</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>20221213</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>서적포 설치
+1. 1101년 : 숙종
+2. 983년 : 성종
+3. 1123년 : 인종</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1, 1101년 : 숙종</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>20221213</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>광학보 설치
+1. 942년 : 태조
+2. 995년 : 성종
+3. 946년 : 정종</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3, 946년 : 정종</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>20221213</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>관학 7재 설치
+1. 1109년 : 예종
+2. 1067년 : 문종
+3. 1057년 : 문종</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1, 1109년 : 예종</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>20221213</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>문신월과법 실시
+1. 995년 : 성종
+2. 958년 : 광종
+3. 946년 : 정종</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1, 995년 : 성종</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>20221213</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>광군 설치
+1. 947년 : 정종
+2. 1145년 : 인종
+3. 1039년 : 정종</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1, 947년 : 정종</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>20221213</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>최치원 문창후에 추시 및 문묘에 배향
+1. 1097년 : 숙종
+2. 1020년 : 현종
+3. 976년 : 경종</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2, 1020년 : 현종</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>20221213</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>5도 양계 4도호부 8목 및 3경 정비
+1. 1077년 : 문종
+2. 996년 : 성종
+3. 1018년 : 현종</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3, 1018년 : 현종</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>20221213</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>개경에 시전 설치
+1. 1102년 : 숙종
+2. 930년 : 태조
+3. 919년 : 태조</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3, 919년 : 태조</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>20221213</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>최충의 9재 학당 설립
+1. 1145년 : 인종
+2. 1055년 : 문종
+3. 1057년 : 문종</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2, 1055년 : 문종</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>20221213</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>윤관 별무반 조직
+1. 1123년 : 인종
+2. 1127년 : 인종
+3. 1104년 : 숙종</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3, 1104년 : 숙종</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>20221213</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>의창 설치
+1. 986년 : 성종
+2. 949년 : 광종
+3. 982년 : 성종</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1, 986년 : 성종</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>20221213</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>김위제의 건의로 남경 건설 추진
+1. 1018년 : 현종
+2. 1099년 : 숙종
+3. 958년 : 광종</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2, 1099년 : 숙종</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>20221213</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>최충의 9재 학당 설립
+1. 1145년 : 인종
+2. 1055년 : 문종
+3. 1057년 : 문종</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2, 1055년 : 문종</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>20221213</v>
+      </c>
+      <c r="E20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>문신월과법 실시
+1. 995년 : 성종
+2. 958년 : 광종
+3. 946년 : 정종</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1, 995년 : 성종</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>20221213</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>최치원 문창후에 추시 및 문묘에 배향
+1. 1097년 : 숙종
+2. 1020년 : 현종
+3. 976년 : 경종</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2, 1020년 : 현종</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>20221213</v>
+      </c>
+      <c r="E22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>관학 7재 설치
+1. 1109년 : 예종
+2. 1067년 : 문종
+3. 1057년 : 문종</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1, 1109년 : 예종</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>20221213</v>
+      </c>
+      <c r="E23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>5도 양계 4도호부 8목 및 3경 정비
+1. 1077년 : 문종
+2. 996년 : 성종
+3. 1018년 : 현종</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>3, 1018년 : 현종</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>20221213</v>
+      </c>
+      <c r="E24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>천자수모법 실시
 1. 1039년 : 정종
@@ -589,404 +1037,50 @@
 3. 1011년 : 현종</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>1, 1039년 : 정종</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>20221212</v>
-      </c>
-      <c r="E7" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>교장도감 설치
-1. 1086년 : 선종
-2. 918년 : 태조
-3. 1033년 : 덕종</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1, 1086년 : 선종</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>20221212</v>
-      </c>
-      <c r="E8" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>학보 설치
-1. 995년 : 성종
-2. 998년 : 목종
-3. 930년 : 태조</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>3, 930년 : 태조</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>20221212</v>
-      </c>
-      <c r="E9" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>국자감 설치 및 정비
-1. 942년 : 태조
-2. 992년 : 성종
-3. 1107년 : 예종</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2, 992년 : 성종</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>20221212</v>
-      </c>
-      <c r="E10" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>송나라 서긍의 고려도경 저술
-1. 949년 : 광종
-2. 942년 : 태조
-3. 1123년 : 인종</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>3, 1123년 : 인종</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>20221212</v>
-      </c>
-      <c r="E11" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>서경 천도 실패
-1. 1049년 : 문종
-2. 990년 : 성종
-3. 946년 : 정종</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>3, 946년 : 정종</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>20221212</v>
-      </c>
-      <c r="E12" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>초조대장경 간행 시작
-1. 1010년 : 현종
-2. 1011년 : 현종
-3. 1109년 : 예종</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2, 1011년 : 현종</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>20221212</v>
-      </c>
-      <c r="E13" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>5도에 안찰사 파견
-1. 963년 : 광종
-2. 1018년 : 현종
-3. 962년 : 광종</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2, 1018년 : 현종</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>20221212</v>
-      </c>
-      <c r="E14" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>의창 설치
-1. 986년 : 성종
-2. 949년 : 광종
-3. 982년 : 성종</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1, 986년 : 성종</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>20221212</v>
-      </c>
-      <c r="E15" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>기인선상법 실시
-1. 1077년 : 문종
-2. 942년 : 태조
-3. 998년 : 목종</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1, 1077년 : 문종</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>20221212</v>
-      </c>
-      <c r="E16" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>지방 12목에 경학박사 의학박사 파견
-1. 1170년 : 의종
-2. 987년 : 성종
-3. 940년 : 태조</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2, 987년 : 성종</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>20221212</v>
-      </c>
-      <c r="E17" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>평양에 기자사당 건립
-1. 1102년 : 숙종
-2. 1018년 : 현종
-3. 1108년 : 예종</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1, 1102년 : 숙종</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>20221212</v>
-      </c>
-      <c r="E18" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>천자수모법 실시
-1. 1039년 : 정종
-2. 1034년 : 덕종
-3. 1011년 : 현종</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1, 1039년 : 정종</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>20221212</v>
-      </c>
-      <c r="E19" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>송나라 서긍의 고려도경 저술
-1. 949년 : 광종
-2. 942년 : 태조
-3. 1123년 : 인종</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>3, 1123년 : 인종</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>20221212</v>
-      </c>
-      <c r="E20" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>5도에 안찰사 파견
-1. 963년 : 광종
-2. 1018년 : 현종
-3. 962년 : 광종</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2, 1018년 : 현종</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>20221212</v>
-      </c>
-      <c r="E21" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>의창 설치
-1. 986년 : 성종
-2. 949년 : 광종
-3. 982년 : 성종</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>2</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1, 986년 : 성종</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>20221212</v>
-      </c>
-      <c r="E22" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>교장도감 설치
-1. 1086년 : 선종
-2. 918년 : 태조
-3. 1033년 : 덕종</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>1, 1086년 : 선종</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>20221212</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>23</t>
+      <c r="D25" t="n">
+        <v>20221213</v>
+      </c>
+      <c r="E25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>최치원 문창후에 추시 및 문묘에 배향
+1. 1097년 : 숙종
+2. 1020년 : 현종
+3. 976년 : 경종</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2, 1020년 : 현종</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>20221213</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>06</t>
         </is>
       </c>
     </row>
